--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DF48F-7D69-49B9-9B45-F34AADA31FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F01337-7ECD-4645-AB26-95D35643CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,27 +290,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2. 소탕 보상</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>살</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -903,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2101,9 +2105,85 @@
         <v>3900</v>
       </c>
     </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32">
+        <v>9026</v>
+      </c>
+      <c r="D32">
+        <v>4000</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" s="2">
+        <v>2.657622E+126</v>
+      </c>
+      <c r="G32">
+        <v>1000</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>8000</v>
+      </c>
+      <c r="K32">
+        <v>9026</v>
+      </c>
+      <c r="L32">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>9026</v>
+      </c>
+      <c r="D33">
+        <v>4100</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33" s="2">
+        <v>3.9798219999999998E+126</v>
+      </c>
+      <c r="G33">
+        <v>1000</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>8200</v>
+      </c>
+      <c r="K33">
+        <v>9026</v>
+      </c>
+      <c r="L33">
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K31">
+  <conditionalFormatting sqref="A2:K33">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2114,10 +2194,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
-  <dimension ref="A1:Z38"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9:K38"/>
+    <sheetView topLeftCell="D24" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2264,7 +2344,7 @@
         <v>25</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C9" s="15"/>
       <c r="E9" s="19">
@@ -2285,7 +2365,7 @@
         <v>41</v>
       </c>
       <c r="J9" s="19" t="str">
-        <f t="shared" ref="J9:J38" si="0">VLOOKUP(I9,N:Q,4,FALSE)</f>
+        <f>VLOOKUP(I9,N:Q,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K9" s="17">
@@ -2303,11 +2383,11 @@
         <v>8</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" ref="P9:P32" si="1">POWER(10,O9)</f>
+        <f t="shared" ref="P9:P32" si="0">POWER(10,O9)</f>
         <v>100000000</v>
       </c>
       <c r="Q9" s="20" t="str">
-        <f t="shared" ref="Q9:Q11" si="2">1&amp;RIGHT(P9,O9)</f>
+        <f t="shared" ref="Q9:Q11" si="1">1&amp;RIGHT(P9,O9)</f>
         <v>100000000</v>
       </c>
     </row>
@@ -2323,11 +2403,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="str">
-        <f t="shared" ref="F10:F38" si="3">H10&amp;I10</f>
+        <f t="shared" ref="F10:F38" si="2">H10&amp;I10</f>
         <v>101무</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" ref="G10:G38" si="4">H10*J10</f>
+        <f t="shared" ref="G10:G38" si="3">H10*J10</f>
         <v>1.0099999999999999E+70</v>
       </c>
       <c r="H10" s="20">
@@ -2339,15 +2419,15 @@
         <v>무</v>
       </c>
       <c r="J10" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I10,N:Q,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" ref="K10:K38" si="5">L10</f>
+        <f t="shared" ref="K10:K38" si="4">L10</f>
         <v>1100</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" ref="L10:L38" si="6">($B$14*(E10-1)+2000)/2</f>
+        <f t="shared" ref="L10:L38" si="5">($B$14*(E10-1)+2000)/2</f>
         <v>1100</v>
       </c>
       <c r="N10" s="19" t="s">
@@ -2357,11 +2437,11 @@
         <v>12</v>
       </c>
       <c r="P10" s="20">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="Q10" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>1000000000000</v>
-      </c>
-      <c r="Q10" s="20" t="str">
-        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
     </row>
@@ -2371,15 +2451,15 @@
         <v>3</v>
       </c>
       <c r="F11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.0201대</v>
+      </c>
+      <c r="G11" s="20">
         <f t="shared" si="3"/>
-        <v>1.0201대</v>
-      </c>
-      <c r="G11" s="20">
-        <f t="shared" si="4"/>
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H38" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H40" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -2387,17 +2467,17 @@
         <v>대</v>
       </c>
       <c r="J11" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I11,N:Q,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="K11" s="17">
+        <f t="shared" si="4"/>
+        <v>1200</v>
+      </c>
+      <c r="L11" s="11">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
-      <c r="L11" s="11">
-        <f t="shared" si="6"/>
-        <v>1200</v>
-      </c>
       <c r="N11" s="19" t="s">
         <v>29</v>
       </c>
@@ -2405,17 +2485,17 @@
         <v>16</v>
       </c>
       <c r="P11" s="20">
+        <f t="shared" si="0"/>
+        <v>1E+16</v>
+      </c>
+      <c r="Q11" s="20" t="str">
         <f t="shared" si="1"/>
-        <v>1E+16</v>
-      </c>
-      <c r="Q11" s="20" t="str">
-        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="14" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="15"/>
@@ -2423,15 +2503,15 @@
         <v>4</v>
       </c>
       <c r="F12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>103.0301대</v>
+      </c>
+      <c r="G12" s="20">
         <f t="shared" si="3"/>
-        <v>103.0301대</v>
-      </c>
-      <c r="G12" s="20">
-        <f t="shared" si="4"/>
         <v>1.0303009999999999E+74</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>103.0301</v>
       </c>
       <c r="I12" s="19" t="str" cm="1">
@@ -2439,17 +2519,17 @@
         <v>대</v>
       </c>
       <c r="J12" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I12,N:Q,4,FALSE)</f>
         <v>1E+72</v>
       </c>
       <c r="K12" s="17">
+        <f t="shared" si="4"/>
+        <v>1300</v>
+      </c>
+      <c r="L12" s="11">
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
-      <c r="L12" s="11">
-        <f t="shared" si="6"/>
-        <v>1300</v>
-      </c>
       <c r="N12" s="19" t="s">
         <v>26</v>
       </c>
@@ -2457,11 +2537,11 @@
         <v>20</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+20</v>
       </c>
       <c r="Q12" s="20" t="str">
-        <f t="shared" ref="Q12:Q32" si="8">RIGHT(P12,O12)</f>
+        <f t="shared" ref="Q12:Q32" si="7">RIGHT(P12,O12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -2477,15 +2557,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.0407겁</v>
+      </c>
+      <c r="G13" s="20">
         <f t="shared" si="3"/>
-        <v>1.0407겁</v>
-      </c>
-      <c r="G13" s="20">
-        <f t="shared" si="4"/>
         <v>1.0407E+76</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0407</v>
       </c>
       <c r="I13" s="19" t="str" cm="1">
@@ -2493,17 +2573,17 @@
         <v>겁</v>
       </c>
       <c r="J13" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I13,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K13" s="17">
+        <f t="shared" si="4"/>
+        <v>1400</v>
+      </c>
+      <c r="L13" s="11">
         <f t="shared" si="5"/>
         <v>1400</v>
       </c>
-      <c r="L13" s="11">
-        <f t="shared" si="6"/>
-        <v>1400</v>
-      </c>
       <c r="N13" s="19" t="s">
         <v>30</v>
       </c>
@@ -2511,11 +2591,11 @@
         <v>24</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="Q13" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -2531,15 +2611,15 @@
         <v>6</v>
       </c>
       <c r="F14" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>105.1107겁</v>
+      </c>
+      <c r="G14" s="20">
         <f t="shared" si="3"/>
-        <v>105.1107겁</v>
-      </c>
-      <c r="G14" s="20">
-        <f t="shared" si="4"/>
         <v>1.0511069999999999E+78</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>105.11069999999999</v>
       </c>
       <c r="I14" s="19" t="str" cm="1">
@@ -2547,17 +2627,17 @@
         <v>겁</v>
       </c>
       <c r="J14" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I14,N:Q,4,FALSE)</f>
         <v>1E+76</v>
       </c>
       <c r="K14" s="17">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="L14" s="11">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
-      <c r="L14" s="11">
-        <f t="shared" si="6"/>
-        <v>1500</v>
-      </c>
       <c r="N14" s="19" t="s">
         <v>31</v>
       </c>
@@ -2565,11 +2645,11 @@
         <v>28</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="Q14" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -2579,15 +2659,15 @@
         <v>7</v>
       </c>
       <c r="F15" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.0617업</v>
+      </c>
+      <c r="G15" s="20">
         <f t="shared" si="3"/>
-        <v>1.0617업</v>
-      </c>
-      <c r="G15" s="20">
-        <f t="shared" si="4"/>
         <v>1.0617E+80</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0617000000000001</v>
       </c>
       <c r="I15" s="19" t="str" cm="1">
@@ -2595,17 +2675,17 @@
         <v>업</v>
       </c>
       <c r="J15" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I15,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K15" s="17">
+        <f t="shared" si="4"/>
+        <v>1600</v>
+      </c>
+      <c r="L15" s="11">
         <f t="shared" si="5"/>
         <v>1600</v>
       </c>
-      <c r="L15" s="11">
-        <f t="shared" si="6"/>
-        <v>1600</v>
-      </c>
       <c r="N15" s="19" t="s">
         <v>32</v>
       </c>
@@ -2613,11 +2693,11 @@
         <v>32</v>
       </c>
       <c r="P15" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="Q15" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -2627,15 +2707,15 @@
         <v>8</v>
       </c>
       <c r="F16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>107.2317업</v>
+      </c>
+      <c r="G16" s="20">
         <f t="shared" si="3"/>
-        <v>107.2317업</v>
-      </c>
-      <c r="G16" s="20">
-        <f t="shared" si="4"/>
         <v>1.072317E+82</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>107.2317</v>
       </c>
       <c r="I16" s="19" t="str" cm="1">
@@ -2643,17 +2723,17 @@
         <v>업</v>
       </c>
       <c r="J16" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I16,N:Q,4,FALSE)</f>
         <v>1E+80</v>
       </c>
       <c r="K16" s="17">
+        <f t="shared" si="4"/>
+        <v>1700</v>
+      </c>
+      <c r="L16" s="11">
         <f t="shared" si="5"/>
         <v>1700</v>
       </c>
-      <c r="L16" s="11">
-        <f t="shared" si="6"/>
-        <v>1700</v>
-      </c>
       <c r="N16" s="19" t="s">
         <v>33</v>
       </c>
@@ -2661,11 +2741,11 @@
         <v>36</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+36</v>
       </c>
       <c r="Q16" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -2675,15 +2755,15 @@
         <v>9</v>
       </c>
       <c r="F17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.0831긍</v>
+      </c>
+      <c r="G17" s="20">
         <f t="shared" si="3"/>
-        <v>1.0831긍</v>
-      </c>
-      <c r="G17" s="20">
-        <f t="shared" si="4"/>
         <v>1.0831000000000001E+84</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.0831</v>
       </c>
       <c r="I17" s="19" t="str" cm="1">
@@ -2691,17 +2771,17 @@
         <v>긍</v>
       </c>
       <c r="J17" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I17,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K17" s="17">
+        <f t="shared" si="4"/>
+        <v>1800</v>
+      </c>
+      <c r="L17" s="11">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-      <c r="L17" s="11">
-        <f t="shared" si="6"/>
-        <v>1800</v>
-      </c>
       <c r="N17" s="19" t="s">
         <v>34</v>
       </c>
@@ -2709,11 +2789,11 @@
         <v>40</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+40</v>
       </c>
       <c r="Q17" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -2723,15 +2803,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>109.3931긍</v>
+      </c>
+      <c r="G18" s="20">
         <f t="shared" si="3"/>
-        <v>109.3931긍</v>
-      </c>
-      <c r="G18" s="20">
-        <f t="shared" si="4"/>
         <v>1.0939310000000001E+86</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>109.3931</v>
       </c>
       <c r="I18" s="19" t="str" cm="1">
@@ -2739,17 +2819,17 @@
         <v>긍</v>
       </c>
       <c r="J18" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I18,N:Q,4,FALSE)</f>
         <v>1E+84</v>
       </c>
       <c r="K18" s="17">
+        <f t="shared" si="4"/>
+        <v>1900</v>
+      </c>
+      <c r="L18" s="11">
         <f t="shared" si="5"/>
         <v>1900</v>
       </c>
-      <c r="L18" s="11">
-        <f t="shared" si="6"/>
-        <v>1900</v>
-      </c>
       <c r="N18" s="19" t="s">
         <v>35</v>
       </c>
@@ -2757,11 +2837,11 @@
         <v>44</v>
       </c>
       <c r="P18" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -2771,15 +2851,15 @@
         <v>11</v>
       </c>
       <c r="F19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.1049갈</v>
+      </c>
+      <c r="G19" s="20">
         <f t="shared" si="3"/>
-        <v>1.1049갈</v>
-      </c>
-      <c r="G19" s="20">
-        <f t="shared" si="4"/>
         <v>1.1048999999999999E+88</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1049</v>
       </c>
       <c r="I19" s="19" t="str" cm="1">
@@ -2787,17 +2867,17 @@
         <v>갈</v>
       </c>
       <c r="J19" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I19,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K19" s="17">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L19" s="11">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
-      <c r="L19" s="11">
-        <f t="shared" si="6"/>
-        <v>2000</v>
-      </c>
       <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
@@ -2805,11 +2885,11 @@
         <v>48</v>
       </c>
       <c r="P19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+48</v>
       </c>
       <c r="Q19" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -2819,15 +2899,15 @@
         <v>12</v>
       </c>
       <c r="F20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>111.5949갈</v>
+      </c>
+      <c r="G20" s="20">
         <f t="shared" si="3"/>
-        <v>111.5949갈</v>
-      </c>
-      <c r="G20" s="20">
-        <f t="shared" si="4"/>
         <v>1.1159489999999999E+90</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>111.5949</v>
       </c>
       <c r="I20" s="19" t="str" cm="1">
@@ -2835,17 +2915,17 @@
         <v>갈</v>
       </c>
       <c r="J20" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I20,N:Q,4,FALSE)</f>
         <v>1E+88</v>
       </c>
       <c r="K20" s="17">
+        <f t="shared" si="4"/>
+        <v>2100</v>
+      </c>
+      <c r="L20" s="11">
         <f t="shared" si="5"/>
         <v>2100</v>
       </c>
-      <c r="L20" s="11">
-        <f t="shared" si="6"/>
-        <v>2100</v>
-      </c>
       <c r="N20" s="19" t="s">
         <v>37</v>
       </c>
@@ -2853,11 +2933,11 @@
         <v>52</v>
       </c>
       <c r="P20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="Q20" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -2867,15 +2947,15 @@
         <v>13</v>
       </c>
       <c r="F21" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.1272라</v>
+      </c>
+      <c r="G21" s="20">
         <f t="shared" si="3"/>
-        <v>1.1272라</v>
-      </c>
-      <c r="G21" s="20">
-        <f t="shared" si="4"/>
         <v>1.1272000000000001E+92</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1272</v>
       </c>
       <c r="I21" s="19" t="str" cm="1">
@@ -2883,17 +2963,17 @@
         <v>라</v>
       </c>
       <c r="J21" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I21,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K21" s="17">
+        <f t="shared" si="4"/>
+        <v>2200</v>
+      </c>
+      <c r="L21" s="11">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
-      <c r="L21" s="11">
-        <f t="shared" si="6"/>
-        <v>2200</v>
-      </c>
       <c r="N21" s="19" t="s">
         <v>38</v>
       </c>
@@ -2901,11 +2981,11 @@
         <v>56</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="Q21" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -2915,15 +2995,15 @@
         <v>14</v>
       </c>
       <c r="F22" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>113.8472라</v>
+      </c>
+      <c r="G22" s="20">
         <f t="shared" si="3"/>
-        <v>113.8472라</v>
-      </c>
-      <c r="G22" s="20">
-        <f t="shared" si="4"/>
         <v>1.1384720000000001E+94</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>113.8472</v>
       </c>
       <c r="I22" s="19" t="str" cm="1">
@@ -2931,17 +3011,17 @@
         <v>라</v>
       </c>
       <c r="J22" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I22,N:Q,4,FALSE)</f>
         <v>1E+92</v>
       </c>
       <c r="K22" s="17">
+        <f t="shared" si="4"/>
+        <v>2300</v>
+      </c>
+      <c r="L22" s="11">
         <f t="shared" si="5"/>
         <v>2300</v>
       </c>
-      <c r="L22" s="11">
-        <f t="shared" si="6"/>
-        <v>2300</v>
-      </c>
       <c r="N22" s="19" t="s">
         <v>39</v>
       </c>
@@ -2949,11 +3029,11 @@
         <v>60</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="Q22" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -2962,15 +3042,15 @@
         <v>15</v>
       </c>
       <c r="F23" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.1499가</v>
+      </c>
+      <c r="G23" s="20">
         <f t="shared" si="3"/>
-        <v>1.1499가</v>
-      </c>
-      <c r="G23" s="20">
-        <f t="shared" si="4"/>
         <v>1.1498999999999999E+96</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1498999999999999</v>
       </c>
       <c r="I23" s="19" t="str" cm="1">
@@ -2978,17 +3058,17 @@
         <v>가</v>
       </c>
       <c r="J23" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I23,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K23" s="17">
+        <f t="shared" si="4"/>
+        <v>2400</v>
+      </c>
+      <c r="L23" s="11">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
-      <c r="L23" s="11">
-        <f t="shared" si="6"/>
-        <v>2400</v>
-      </c>
       <c r="N23" s="19" t="s">
         <v>40</v>
       </c>
@@ -2996,11 +3076,11 @@
         <v>64</v>
       </c>
       <c r="P23" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+64</v>
       </c>
       <c r="Q23" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -3009,15 +3089,15 @@
         <v>16</v>
       </c>
       <c r="F24" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>116.1399가</v>
+      </c>
+      <c r="G24" s="20">
         <f t="shared" si="3"/>
-        <v>116.1399가</v>
-      </c>
-      <c r="G24" s="20">
-        <f t="shared" si="4"/>
         <v>1.1613990000000001E+98</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>116.1399</v>
       </c>
       <c r="I24" s="19" t="str" cm="1">
@@ -3025,17 +3105,17 @@
         <v>가</v>
       </c>
       <c r="J24" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I24,N:Q,4,FALSE)</f>
         <v>1E+96</v>
       </c>
       <c r="K24" s="17">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="L24" s="11">
         <f t="shared" si="5"/>
         <v>2500</v>
       </c>
-      <c r="L24" s="11">
-        <f t="shared" si="6"/>
-        <v>2500</v>
-      </c>
       <c r="N24" s="19" t="s">
         <v>41</v>
       </c>
@@ -3043,11 +3123,11 @@
         <v>68</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="Q24" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -3056,15 +3136,15 @@
         <v>17</v>
       </c>
       <c r="F25" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.1731언</v>
+      </c>
+      <c r="G25" s="20">
         <f t="shared" si="3"/>
-        <v>1.1731언</v>
-      </c>
-      <c r="G25" s="20">
-        <f t="shared" si="4"/>
         <v>1.1731000000000001E+100</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1731</v>
       </c>
       <c r="I25" s="19" t="str" cm="1">
@@ -3072,17 +3152,17 @@
         <v>언</v>
       </c>
       <c r="J25" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I25,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K25" s="17">
+        <f t="shared" si="4"/>
+        <v>2600</v>
+      </c>
+      <c r="L25" s="11">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
-      <c r="L25" s="11">
-        <f t="shared" si="6"/>
-        <v>2600</v>
-      </c>
       <c r="N25" s="19" t="s">
         <v>42</v>
       </c>
@@ -3090,11 +3170,11 @@
         <v>72</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="Q25" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -3103,15 +3183,15 @@
         <v>18</v>
       </c>
       <c r="F26" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>118.4831언</v>
+      </c>
+      <c r="G26" s="20">
         <f t="shared" si="3"/>
-        <v>118.4831언</v>
-      </c>
-      <c r="G26" s="20">
-        <f t="shared" si="4"/>
         <v>1.184831E+102</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>118.48309999999999</v>
       </c>
       <c r="I26" s="19" t="str" cm="1">
@@ -3119,17 +3199,17 @@
         <v>언</v>
       </c>
       <c r="J26" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I26,N:Q,4,FALSE)</f>
         <v>1E+100</v>
       </c>
       <c r="K26" s="17">
+        <f t="shared" si="4"/>
+        <v>2700</v>
+      </c>
+      <c r="L26" s="11">
         <f t="shared" si="5"/>
         <v>2700</v>
       </c>
-      <c r="L26" s="11">
-        <f t="shared" si="6"/>
-        <v>2700</v>
-      </c>
       <c r="N26" s="19" t="s">
         <v>43</v>
       </c>
@@ -3137,11 +3217,11 @@
         <v>76</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="Q26" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -3150,15 +3230,15 @@
         <v>19</v>
       </c>
       <c r="F27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.1967승</v>
+      </c>
+      <c r="G27" s="20">
         <f t="shared" si="3"/>
-        <v>1.1967승</v>
-      </c>
-      <c r="G27" s="20">
-        <f t="shared" si="4"/>
         <v>1.1967000000000001E+104</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.1967000000000001</v>
       </c>
       <c r="I27" s="19" t="str" cm="1">
@@ -3166,17 +3246,17 @@
         <v>승</v>
       </c>
       <c r="J27" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I27,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K27" s="17">
+        <f t="shared" si="4"/>
+        <v>2800</v>
+      </c>
+      <c r="L27" s="11">
         <f t="shared" si="5"/>
         <v>2800</v>
       </c>
-      <c r="L27" s="11">
-        <f t="shared" si="6"/>
-        <v>2800</v>
-      </c>
       <c r="N27" s="19" t="s">
         <v>44</v>
       </c>
@@ -3184,11 +3264,11 @@
         <v>80</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="Q27" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -3197,15 +3277,15 @@
         <v>20</v>
       </c>
       <c r="F28" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>120.8667승</v>
+      </c>
+      <c r="G28" s="20">
         <f t="shared" si="3"/>
-        <v>120.8667승</v>
-      </c>
-      <c r="G28" s="20">
-        <f t="shared" si="4"/>
         <v>1.2086669999999999E+106</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>120.86669999999999</v>
       </c>
       <c r="I28" s="19" t="str" cm="1">
@@ -3213,17 +3293,17 @@
         <v>승</v>
       </c>
       <c r="J28" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I28,N:Q,4,FALSE)</f>
         <v>1E+104</v>
       </c>
       <c r="K28" s="17">
+        <f t="shared" si="4"/>
+        <v>2900</v>
+      </c>
+      <c r="L28" s="11">
         <f t="shared" si="5"/>
         <v>2900</v>
       </c>
-      <c r="L28" s="11">
-        <f t="shared" si="6"/>
-        <v>2900</v>
-      </c>
       <c r="N28" s="19" t="s">
         <v>45</v>
       </c>
@@ -3231,11 +3311,11 @@
         <v>84</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="Q28" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -3244,15 +3324,15 @@
         <v>21</v>
       </c>
       <c r="F29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.2208마</v>
+      </c>
+      <c r="G29" s="20">
         <f t="shared" si="3"/>
-        <v>1.2208마</v>
-      </c>
-      <c r="G29" s="20">
-        <f t="shared" si="4"/>
         <v>1.2207999999999998E+108</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2207999999999999</v>
       </c>
       <c r="I29" s="19" t="str" cm="1">
@@ -3260,17 +3340,17 @@
         <v>마</v>
       </c>
       <c r="J29" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I29,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K29" s="17">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L29" s="11">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
-      <c r="L29" s="11">
-        <f t="shared" si="6"/>
-        <v>3000</v>
-      </c>
       <c r="N29" s="19" t="s">
         <v>46</v>
       </c>
@@ -3278,11 +3358,11 @@
         <v>88</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="Q29" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -3291,15 +3371,15 @@
         <v>22</v>
       </c>
       <c r="F30" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>123.3008마</v>
+      </c>
+      <c r="G30" s="20">
         <f t="shared" si="3"/>
-        <v>123.3008마</v>
-      </c>
-      <c r="G30" s="20">
-        <f t="shared" si="4"/>
         <v>1.233008E+110</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>123.3008</v>
       </c>
       <c r="I30" s="19" t="str" cm="1">
@@ -3307,17 +3387,17 @@
         <v>마</v>
       </c>
       <c r="J30" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I30,N:Q,4,FALSE)</f>
         <v>1E+108</v>
       </c>
       <c r="K30" s="17">
+        <f t="shared" si="4"/>
+        <v>3100</v>
+      </c>
+      <c r="L30" s="11">
         <f t="shared" si="5"/>
         <v>3100</v>
       </c>
-      <c r="L30" s="11">
-        <f t="shared" si="6"/>
-        <v>3100</v>
-      </c>
       <c r="N30" s="19" t="s">
         <v>47</v>
       </c>
@@ -3325,11 +3405,11 @@
         <v>92</v>
       </c>
       <c r="P30" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="Q30" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -3338,33 +3418,33 @@
         <v>23</v>
       </c>
       <c r="F31" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.2454살</v>
+      </c>
+      <c r="G31" s="20">
         <f t="shared" si="3"/>
-        <v>1.2454a</v>
-      </c>
-      <c r="G31" s="20">
-        <f t="shared" si="4"/>
         <v>1.2454E+112</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2454000000000001</v>
       </c>
       <c r="I31" s="19" t="str" cm="1">
         <f t="array" ref="I31">IF(AND(H30&gt;100,H31&lt;100),INDEX(N:N,MATCH(I30,N:N,0)+1,0),I30)</f>
-        <v>a</v>
+        <v>살</v>
       </c>
       <c r="J31" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I31,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K31" s="17">
+        <f t="shared" si="4"/>
+        <v>3200</v>
+      </c>
+      <c r="L31" s="11">
         <f t="shared" si="5"/>
         <v>3200</v>
       </c>
-      <c r="L31" s="11">
-        <f t="shared" si="6"/>
-        <v>3200</v>
-      </c>
       <c r="N31" s="19" t="s">
         <v>48</v>
       </c>
@@ -3372,11 +3452,11 @@
         <v>96</v>
       </c>
       <c r="P31" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="Q31" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -3385,33 +3465,33 @@
         <v>24</v>
       </c>
       <c r="F32" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>125.7854살</v>
+      </c>
+      <c r="G32" s="20">
         <f t="shared" si="3"/>
-        <v>125.7854a</v>
-      </c>
-      <c r="G32" s="20">
-        <f t="shared" si="4"/>
         <v>1.257854E+114</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>125.7854</v>
       </c>
       <c r="I32" s="19" t="str" cm="1">
         <f t="array" ref="I32">IF(AND(H31&gt;100,H32&lt;100),INDEX(N:N,MATCH(I31,N:N,0)+1,0),I31)</f>
-        <v>a</v>
+        <v>살</v>
       </c>
       <c r="J32" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I32,N:Q,4,FALSE)</f>
         <v>1E+112</v>
       </c>
       <c r="K32" s="17">
+        <f t="shared" si="4"/>
+        <v>3300</v>
+      </c>
+      <c r="L32" s="11">
         <f t="shared" si="5"/>
         <v>3300</v>
       </c>
-      <c r="L32" s="11">
-        <f t="shared" si="6"/>
-        <v>3300</v>
-      </c>
       <c r="N32" s="19" t="s">
         <v>49</v>
       </c>
@@ -3419,11 +3499,11 @@
         <v>100</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="Q32" s="20" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -3432,33 +3512,33 @@
         <v>25</v>
       </c>
       <c r="F33" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.2705섬</v>
+      </c>
+      <c r="G33" s="20">
         <f t="shared" si="3"/>
-        <v>1.2705b</v>
-      </c>
-      <c r="G33" s="20">
-        <f t="shared" si="4"/>
         <v>1.2705E+116</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2705</v>
       </c>
       <c r="I33" s="19" t="str" cm="1">
         <f t="array" ref="I33">IF(AND(H32&gt;100,H33&lt;100),INDEX(N:N,MATCH(I32,N:N,0)+1,0),I32)</f>
-        <v>b</v>
+        <v>섬</v>
       </c>
       <c r="J33" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I33,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K33" s="17">
+        <f t="shared" si="4"/>
+        <v>3400</v>
+      </c>
+      <c r="L33" s="11">
         <f t="shared" si="5"/>
         <v>3400</v>
       </c>
-      <c r="L33" s="11">
-        <f t="shared" si="6"/>
-        <v>3400</v>
-      </c>
       <c r="N33" s="19" t="s">
         <v>56</v>
       </c>
@@ -3466,11 +3546,11 @@
         <v>104</v>
       </c>
       <c r="P33" s="20">
-        <f t="shared" ref="P33:P34" si="9">POWER(10,O33)</f>
+        <f t="shared" ref="P33:P34" si="8">POWER(10,O33)</f>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="20" t="str">
-        <f t="shared" ref="Q33:Q34" si="10">RIGHT(P33,O33)</f>
+        <f t="shared" ref="Q33:Q34" si="9">RIGHT(P33,O33)</f>
         <v>1E+104</v>
       </c>
       <c r="R33" s="11"/>
@@ -3488,33 +3568,33 @@
         <v>26</v>
       </c>
       <c r="F34" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>128.3205섬</v>
+      </c>
+      <c r="G34" s="20">
         <f t="shared" si="3"/>
-        <v>128.3205b</v>
-      </c>
-      <c r="G34" s="20">
-        <f t="shared" si="4"/>
         <v>1.2832050000000001E+118</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>128.32050000000001</v>
       </c>
       <c r="I34" s="19" t="str" cm="1">
         <f t="array" ref="I34">IF(AND(H33&gt;100,H34&lt;100),INDEX(N:N,MATCH(I33,N:N,0)+1,0),I33)</f>
-        <v>b</v>
+        <v>섬</v>
       </c>
       <c r="J34" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I34,N:Q,4,FALSE)</f>
         <v>1E+116</v>
       </c>
       <c r="K34" s="17">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="L34" s="11">
         <f t="shared" si="5"/>
         <v>3500</v>
       </c>
-      <c r="L34" s="11">
-        <f t="shared" si="6"/>
-        <v>3500</v>
-      </c>
       <c r="N34" s="19" t="s">
         <v>57</v>
       </c>
@@ -3522,11 +3602,11 @@
         <v>108</v>
       </c>
       <c r="P34" s="20">
+        <f t="shared" si="8"/>
+        <v>1E+108</v>
+      </c>
+      <c r="Q34" s="20" t="str">
         <f t="shared" si="9"/>
-        <v>1E+108</v>
-      </c>
-      <c r="Q34" s="20" t="str">
-        <f t="shared" si="10"/>
         <v>1E+108</v>
       </c>
       <c r="R34" s="11"/>
@@ -3544,45 +3624,45 @@
         <v>27</v>
       </c>
       <c r="F35" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.2961찰</v>
+      </c>
+      <c r="G35" s="20">
         <f t="shared" si="3"/>
-        <v>1.2961c</v>
-      </c>
-      <c r="G35" s="20">
-        <f t="shared" si="4"/>
         <v>1.2961E+120</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.2961</v>
       </c>
       <c r="I35" s="19" t="str" cm="1">
         <f t="array" ref="I35">IF(AND(H34&gt;100,H35&lt;100),INDEX(N:N,MATCH(I34,N:N,0)+1,0),I34)</f>
-        <v>c</v>
+        <v>찰</v>
       </c>
       <c r="J35" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I35,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K35" s="17">
+        <f t="shared" si="4"/>
+        <v>3600</v>
+      </c>
+      <c r="L35" s="11">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
-      <c r="L35" s="11">
-        <f t="shared" si="6"/>
-        <v>3600</v>
-      </c>
       <c r="N35" s="19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O35" s="19">
         <v>112</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" ref="P35:P38" si="11">POWER(10,O35)</f>
+        <f t="shared" ref="P35:P38" si="10">POWER(10,O35)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="Q35" s="20" t="str">
-        <f t="shared" ref="Q35:Q38" si="12">RIGHT(P35,O35)</f>
+        <f t="shared" ref="Q35:Q38" si="11">RIGHT(P35,O35)</f>
         <v>1E+112</v>
       </c>
       <c r="R35" s="11"/>
@@ -3600,45 +3680,45 @@
         <v>28</v>
       </c>
       <c r="F36" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>130.9061찰</v>
+      </c>
+      <c r="G36" s="20">
         <f t="shared" si="3"/>
-        <v>130.9061c</v>
-      </c>
-      <c r="G36" s="20">
-        <f t="shared" si="4"/>
         <v>1.3090610000000001E+122</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>130.90610000000001</v>
       </c>
       <c r="I36" s="19" t="str" cm="1">
         <f t="array" ref="I36">IF(AND(H35&gt;100,H36&lt;100),INDEX(N:N,MATCH(I35,N:N,0)+1,0),I35)</f>
-        <v>c</v>
+        <v>찰</v>
       </c>
       <c r="J36" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I36,N:Q,4,FALSE)</f>
         <v>1E+120</v>
       </c>
       <c r="K36" s="17">
+        <f t="shared" si="4"/>
+        <v>3700</v>
+      </c>
+      <c r="L36" s="11">
         <f t="shared" si="5"/>
         <v>3700</v>
       </c>
-      <c r="L36" s="11">
-        <f t="shared" si="6"/>
-        <v>3700</v>
-      </c>
       <c r="N36" s="19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O36" s="19">
         <v>116</v>
       </c>
       <c r="P36" s="20">
+        <f t="shared" si="10"/>
+        <v>1E+116</v>
+      </c>
+      <c r="Q36" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>1E+116</v>
-      </c>
-      <c r="Q36" s="20" t="str">
-        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="R36" s="11"/>
@@ -3656,45 +3736,45 @@
         <v>29</v>
       </c>
       <c r="F37" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>1.3222교</v>
+      </c>
+      <c r="G37" s="20">
         <f t="shared" si="3"/>
-        <v>1.3222d</v>
-      </c>
-      <c r="G37" s="20">
-        <f t="shared" si="4"/>
         <v>1.3222E+124</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>1.3222</v>
       </c>
       <c r="I37" s="19" t="str" cm="1">
         <f t="array" ref="I37">IF(AND(H36&gt;100,H37&lt;100),INDEX(N:N,MATCH(I36,N:N,0)+1,0),I36)</f>
-        <v>d</v>
+        <v>교</v>
       </c>
       <c r="J37" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I37,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K37" s="17">
+        <f t="shared" si="4"/>
+        <v>3800</v>
+      </c>
+      <c r="L37" s="11">
         <f t="shared" si="5"/>
         <v>3800</v>
       </c>
-      <c r="L37" s="11">
-        <f t="shared" si="6"/>
-        <v>3800</v>
-      </c>
       <c r="N37" s="19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O37" s="19">
         <v>120</v>
       </c>
       <c r="P37" s="20">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999998E+119</v>
+      </c>
+      <c r="Q37" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>9.9999999999999998E+119</v>
-      </c>
-      <c r="Q37" s="20" t="str">
-        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="R37" s="11"/>
@@ -3712,45 +3792,45 @@
         <v>30</v>
       </c>
       <c r="F38" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>133.5422교</v>
+      </c>
+      <c r="G38" s="20">
         <f t="shared" si="3"/>
-        <v>133.5422d</v>
-      </c>
-      <c r="G38" s="20">
-        <f t="shared" si="4"/>
         <v>1.335422E+126</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>133.54220000000001</v>
       </c>
       <c r="I38" s="19" t="str" cm="1">
         <f t="array" ref="I38">IF(AND(H37&gt;100,H38&lt;100),INDEX(N:N,MATCH(I37,N:N,0)+1,0),I37)</f>
-        <v>d</v>
+        <v>교</v>
       </c>
       <c r="J38" s="19" t="str">
-        <f t="shared" si="0"/>
+        <f>VLOOKUP(I38,N:Q,4,FALSE)</f>
         <v>1E+124</v>
       </c>
       <c r="K38" s="17">
+        <f t="shared" si="4"/>
+        <v>3900</v>
+      </c>
+      <c r="L38" s="11">
         <f t="shared" si="5"/>
         <v>3900</v>
       </c>
-      <c r="L38" s="11">
-        <f t="shared" si="6"/>
-        <v>3900</v>
-      </c>
       <c r="N38" s="19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O38" s="19">
         <v>124</v>
       </c>
       <c r="P38" s="20">
+        <f t="shared" si="10"/>
+        <v>9.9999999999999995E+123</v>
+      </c>
+      <c r="Q38" s="20" t="str">
         <f t="shared" si="11"/>
-        <v>9.9999999999999995E+123</v>
-      </c>
-      <c r="Q38" s="20" t="str">
-        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="R38" s="11"/>
@@ -3763,6 +3843,86 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
+    <row r="39" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E39" s="19">
+        <v>31</v>
+      </c>
+      <c r="F39" s="20" t="str">
+        <f t="shared" ref="F39:F40" si="12">H39&amp;I39</f>
+        <v>1.3488위</v>
+      </c>
+      <c r="G39" s="20">
+        <f t="shared" ref="G39:G40" si="13">H39*J39</f>
+        <v>1.3488000000000002E+128</v>
+      </c>
+      <c r="H39" s="20">
+        <f t="shared" si="6"/>
+        <v>1.3488</v>
+      </c>
+      <c r="I39" s="19" t="str" cm="1">
+        <f t="array" ref="I39">IF(AND(H38&gt;100,H39&lt;100),INDEX(N:N,MATCH(I38,N:N,0)+1,0),I38)</f>
+        <v>위</v>
+      </c>
+      <c r="J39" s="19" t="str">
+        <f>VLOOKUP(I39,N:Q,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+      <c r="K39" s="17">
+        <f t="shared" ref="K39:K40" si="14">L39</f>
+        <v>4000</v>
+      </c>
+      <c r="L39" s="11">
+        <f t="shared" ref="L39:L40" si="15">($B$14*(E39-1)+2000)/2</f>
+        <v>4000</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O39" s="19">
+        <v>128</v>
+      </c>
+      <c r="P39" s="20">
+        <f t="shared" ref="P39" si="16">POWER(10,O39)</f>
+        <v>1.0000000000000001E+128</v>
+      </c>
+      <c r="Q39" s="20" t="str">
+        <f t="shared" ref="Q39" si="17">RIGHT(P39,O39)</f>
+        <v>1E+128</v>
+      </c>
+    </row>
+    <row r="40" spans="5:26" x14ac:dyDescent="0.3">
+      <c r="E40" s="19">
+        <v>32</v>
+      </c>
+      <c r="F40" s="20" t="str">
+        <f t="shared" si="12"/>
+        <v>136.2288위</v>
+      </c>
+      <c r="G40" s="20">
+        <f t="shared" si="13"/>
+        <v>1.3622880000000003E+130</v>
+      </c>
+      <c r="H40" s="20">
+        <f t="shared" si="6"/>
+        <v>136.22880000000001</v>
+      </c>
+      <c r="I40" s="19" t="str" cm="1">
+        <f t="array" ref="I40">IF(AND(H39&gt;100,H40&lt;100),INDEX(N:N,MATCH(I39,N:N,0)+1,0),I39)</f>
+        <v>위</v>
+      </c>
+      <c r="J40" s="19" t="str">
+        <f>VLOOKUP(I40,N:Q,4,FALSE)</f>
+        <v>1E+128</v>
+      </c>
+      <c r="K40" s="17">
+        <f t="shared" si="14"/>
+        <v>4100</v>
+      </c>
+      <c r="L40" s="11">
+        <f t="shared" si="15"/>
+        <v>4100</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A6:B6"/>

--- a/Assets/06.Table/FoxTower.xlsx
+++ b/Assets/06.Table/FoxTower.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F01337-7ECD-4645-AB26-95D35643CC5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF074074-A8A8-4AF5-A81E-07BF17B96594}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2DC4E3BF-D7AE-4522-A886-E66AFD38896F}"/>
   </bookViews>
   <sheets>
     <sheet name="FoxTower" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="65">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -907,10 +907,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D428B9-6123-44B5-B5F3-0BF3F2D19778}">
-  <dimension ref="A1:L33"/>
+  <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2116,13 +2116,15 @@
         <v>9026</v>
       </c>
       <c r="D32">
+        <f>VLOOKUP(A32+1,balacne!E:L,7,FALSE)</f>
         <v>4000</v>
       </c>
       <c r="E32">
         <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>2.657622E+126</v>
+        <f>VLOOKUP(A32+1,balacne!E:L,3,FALSE)</f>
+        <v>1.3488000000000002E+128</v>
       </c>
       <c r="G32">
         <v>1000</v>
@@ -2140,50 +2142,13 @@
         <v>9026</v>
       </c>
       <c r="L32">
+        <f>VLOOKUP(A32+1,balacne!E:L,8,FALSE)</f>
         <v>4000</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33">
-        <v>9026</v>
-      </c>
-      <c r="D33">
-        <v>4100</v>
-      </c>
-      <c r="E33">
-        <v>1</v>
-      </c>
-      <c r="F33" s="2">
-        <v>3.9798219999999998E+126</v>
-      </c>
-      <c r="G33">
-        <v>1000</v>
-      </c>
-      <c r="H33">
-        <v>8</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>8200</v>
-      </c>
-      <c r="K33">
-        <v>9026</v>
-      </c>
-      <c r="L33">
-        <v>4100</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A2:K33">
+  <conditionalFormatting sqref="A2:K32">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2196,8 +2161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{793C3EB1-39A5-47DA-9764-0728AA4AC8A0}">
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView topLeftCell="D24" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+    <sheetView topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2365,7 +2330,7 @@
         <v>41</v>
       </c>
       <c r="J9" s="19" t="str">
-        <f>VLOOKUP(I9,N:Q,4,FALSE)</f>
+        <f t="shared" ref="J9:J40" si="0">VLOOKUP(I9,N:Q,4,FALSE)</f>
         <v>1E+68</v>
       </c>
       <c r="K9" s="17">
@@ -2383,11 +2348,11 @@
         <v>8</v>
       </c>
       <c r="P9" s="20">
-        <f t="shared" ref="P9:P32" si="0">POWER(10,O9)</f>
+        <f t="shared" ref="P9:P32" si="1">POWER(10,O9)</f>
         <v>100000000</v>
       </c>
       <c r="Q9" s="20" t="str">
-        <f t="shared" ref="Q9:Q11" si="1">1&amp;RIGHT(P9,O9)</f>
+        <f t="shared" ref="Q9:Q11" si="2">1&amp;RIGHT(P9,O9)</f>
         <v>100000000</v>
       </c>
     </row>
@@ -2403,11 +2368,11 @@
         <v>2</v>
       </c>
       <c r="F10" s="20" t="str">
-        <f t="shared" ref="F10:F38" si="2">H10&amp;I10</f>
+        <f t="shared" ref="F10:F38" si="3">H10&amp;I10</f>
         <v>101무</v>
       </c>
       <c r="G10" s="20">
-        <f t="shared" ref="G10:G38" si="3">H10*J10</f>
+        <f t="shared" ref="G10:G38" si="4">H10*J10</f>
         <v>1.0099999999999999E+70</v>
       </c>
       <c r="H10" s="20">
@@ -2419,15 +2384,15 @@
         <v>무</v>
       </c>
       <c r="J10" s="19" t="str">
-        <f>VLOOKUP(I10,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+68</v>
       </c>
       <c r="K10" s="17">
-        <f t="shared" ref="K10:K38" si="4">L10</f>
+        <f t="shared" ref="K10:K38" si="5">L10</f>
         <v>1100</v>
       </c>
       <c r="L10" s="11">
-        <f t="shared" ref="L10:L38" si="5">($B$14*(E10-1)+2000)/2</f>
+        <f t="shared" ref="L10:L38" si="6">($B$14*(E10-1)+2000)/2</f>
         <v>1100</v>
       </c>
       <c r="N10" s="19" t="s">
@@ -2437,11 +2402,11 @@
         <v>12</v>
       </c>
       <c r="P10" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1000000000000</v>
       </c>
       <c r="Q10" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1000000000000</v>
       </c>
     </row>
@@ -2451,15 +2416,15 @@
         <v>3</v>
       </c>
       <c r="F11" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0201대</v>
       </c>
       <c r="G11" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0200999999999999E+72</v>
       </c>
       <c r="H11" s="20">
-        <f t="shared" ref="H11:H40" si="6">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
+        <f t="shared" ref="H11:H40" si="7">IF(ROUNDUP(H10*((100+$B$10)/100),0)&gt;10000,ROUNDUP(H10*((100+$B$10)/100)/10000,4),ROUNDUP(H10*((100+$B$10)/100),4))</f>
         <v>1.0201</v>
       </c>
       <c r="I11" s="19" t="str" cm="1">
@@ -2467,17 +2432,17 @@
         <v>대</v>
       </c>
       <c r="J11" s="19" t="str">
-        <f>VLOOKUP(I11,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+72</v>
       </c>
       <c r="K11" s="17">
-        <f t="shared" si="4"/>
-        <v>1200</v>
-      </c>
-      <c r="L11" s="11">
         <f t="shared" si="5"/>
         <v>1200</v>
       </c>
+      <c r="L11" s="11">
+        <f t="shared" si="6"/>
+        <v>1200</v>
+      </c>
       <c r="N11" s="19" t="s">
         <v>29</v>
       </c>
@@ -2485,11 +2450,11 @@
         <v>16</v>
       </c>
       <c r="P11" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+16</v>
       </c>
       <c r="Q11" s="20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10000000000000000</v>
       </c>
     </row>
@@ -2503,15 +2468,15 @@
         <v>4</v>
       </c>
       <c r="F12" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>103.0301대</v>
       </c>
       <c r="G12" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0303009999999999E+74</v>
       </c>
       <c r="H12" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>103.0301</v>
       </c>
       <c r="I12" s="19" t="str" cm="1">
@@ -2519,17 +2484,17 @@
         <v>대</v>
       </c>
       <c r="J12" s="19" t="str">
-        <f>VLOOKUP(I12,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+72</v>
       </c>
       <c r="K12" s="17">
-        <f t="shared" si="4"/>
-        <v>1300</v>
-      </c>
-      <c r="L12" s="11">
         <f t="shared" si="5"/>
         <v>1300</v>
       </c>
+      <c r="L12" s="11">
+        <f t="shared" si="6"/>
+        <v>1300</v>
+      </c>
       <c r="N12" s="19" t="s">
         <v>26</v>
       </c>
@@ -2537,11 +2502,11 @@
         <v>20</v>
       </c>
       <c r="P12" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+20</v>
       </c>
       <c r="Q12" s="20" t="str">
-        <f t="shared" ref="Q12:Q32" si="7">RIGHT(P12,O12)</f>
+        <f t="shared" ref="Q12:Q32" si="8">RIGHT(P12,O12)</f>
         <v>1E+20</v>
       </c>
     </row>
@@ -2557,15 +2522,15 @@
         <v>5</v>
       </c>
       <c r="F13" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0407겁</v>
       </c>
       <c r="G13" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0407E+76</v>
       </c>
       <c r="H13" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0407</v>
       </c>
       <c r="I13" s="19" t="str" cm="1">
@@ -2573,17 +2538,17 @@
         <v>겁</v>
       </c>
       <c r="J13" s="19" t="str">
-        <f>VLOOKUP(I13,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="K13" s="17">
-        <f t="shared" si="4"/>
-        <v>1400</v>
-      </c>
-      <c r="L13" s="11">
         <f t="shared" si="5"/>
         <v>1400</v>
       </c>
+      <c r="L13" s="11">
+        <f t="shared" si="6"/>
+        <v>1400</v>
+      </c>
       <c r="N13" s="19" t="s">
         <v>30</v>
       </c>
@@ -2591,11 +2556,11 @@
         <v>24</v>
       </c>
       <c r="P13" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="Q13" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+24</v>
       </c>
     </row>
@@ -2611,15 +2576,15 @@
         <v>6</v>
       </c>
       <c r="F14" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>105.1107겁</v>
       </c>
       <c r="G14" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0511069999999999E+78</v>
       </c>
       <c r="H14" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>105.11069999999999</v>
       </c>
       <c r="I14" s="19" t="str" cm="1">
@@ -2627,17 +2592,17 @@
         <v>겁</v>
       </c>
       <c r="J14" s="19" t="str">
-        <f>VLOOKUP(I14,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+76</v>
       </c>
       <c r="K14" s="17">
-        <f t="shared" si="4"/>
-        <v>1500</v>
-      </c>
-      <c r="L14" s="11">
         <f t="shared" si="5"/>
         <v>1500</v>
       </c>
+      <c r="L14" s="11">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
       <c r="N14" s="19" t="s">
         <v>31</v>
       </c>
@@ -2645,11 +2610,11 @@
         <v>28</v>
       </c>
       <c r="P14" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999996E+27</v>
       </c>
       <c r="Q14" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+28</v>
       </c>
     </row>
@@ -2659,15 +2624,15 @@
         <v>7</v>
       </c>
       <c r="F15" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0617업</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0617E+80</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0617000000000001</v>
       </c>
       <c r="I15" s="19" t="str" cm="1">
@@ -2675,17 +2640,17 @@
         <v>업</v>
       </c>
       <c r="J15" s="19" t="str">
-        <f>VLOOKUP(I15,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="K15" s="17">
-        <f t="shared" si="4"/>
-        <v>1600</v>
-      </c>
-      <c r="L15" s="11">
         <f t="shared" si="5"/>
         <v>1600</v>
       </c>
+      <c r="L15" s="11">
+        <f t="shared" si="6"/>
+        <v>1600</v>
+      </c>
       <c r="N15" s="19" t="s">
         <v>32</v>
       </c>
@@ -2693,11 +2658,11 @@
         <v>32</v>
       </c>
       <c r="P15" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+32</v>
       </c>
       <c r="Q15" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+32</v>
       </c>
     </row>
@@ -2707,15 +2672,15 @@
         <v>8</v>
       </c>
       <c r="F16" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107.2317업</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.072317E+82</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>107.2317</v>
       </c>
       <c r="I16" s="19" t="str" cm="1">
@@ -2723,17 +2688,17 @@
         <v>업</v>
       </c>
       <c r="J16" s="19" t="str">
-        <f>VLOOKUP(I16,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+80</v>
       </c>
       <c r="K16" s="17">
-        <f t="shared" si="4"/>
-        <v>1700</v>
-      </c>
-      <c r="L16" s="11">
         <f t="shared" si="5"/>
         <v>1700</v>
       </c>
+      <c r="L16" s="11">
+        <f t="shared" si="6"/>
+        <v>1700</v>
+      </c>
       <c r="N16" s="19" t="s">
         <v>33</v>
       </c>
@@ -2741,11 +2706,11 @@
         <v>36</v>
       </c>
       <c r="P16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+36</v>
       </c>
       <c r="Q16" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+36</v>
       </c>
     </row>
@@ -2755,15 +2720,15 @@
         <v>9</v>
       </c>
       <c r="F17" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.0831긍</v>
       </c>
       <c r="G17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0831000000000001E+84</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.0831</v>
       </c>
       <c r="I17" s="19" t="str" cm="1">
@@ -2771,17 +2736,17 @@
         <v>긍</v>
       </c>
       <c r="J17" s="19" t="str">
-        <f>VLOOKUP(I17,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+84</v>
       </c>
       <c r="K17" s="17">
-        <f t="shared" si="4"/>
-        <v>1800</v>
-      </c>
-      <c r="L17" s="11">
         <f t="shared" si="5"/>
         <v>1800</v>
       </c>
+      <c r="L17" s="11">
+        <f t="shared" si="6"/>
+        <v>1800</v>
+      </c>
       <c r="N17" s="19" t="s">
         <v>34</v>
       </c>
@@ -2789,11 +2754,11 @@
         <v>40</v>
       </c>
       <c r="P17" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+40</v>
       </c>
       <c r="Q17" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+40</v>
       </c>
     </row>
@@ -2803,15 +2768,15 @@
         <v>10</v>
       </c>
       <c r="F18" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>109.3931긍</v>
       </c>
       <c r="G18" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0939310000000001E+86</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>109.3931</v>
       </c>
       <c r="I18" s="19" t="str" cm="1">
@@ -2819,17 +2784,17 @@
         <v>긍</v>
       </c>
       <c r="J18" s="19" t="str">
-        <f>VLOOKUP(I18,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+84</v>
       </c>
       <c r="K18" s="17">
-        <f t="shared" si="4"/>
-        <v>1900</v>
-      </c>
-      <c r="L18" s="11">
         <f t="shared" si="5"/>
         <v>1900</v>
       </c>
+      <c r="L18" s="11">
+        <f t="shared" si="6"/>
+        <v>1900</v>
+      </c>
       <c r="N18" s="19" t="s">
         <v>35</v>
       </c>
@@ -2837,11 +2802,11 @@
         <v>44</v>
       </c>
       <c r="P18" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+44</v>
       </c>
       <c r="Q18" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+44</v>
       </c>
     </row>
@@ -2851,15 +2816,15 @@
         <v>11</v>
       </c>
       <c r="F19" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1049갈</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1048999999999999E+88</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1049</v>
       </c>
       <c r="I19" s="19" t="str" cm="1">
@@ -2867,17 +2832,17 @@
         <v>갈</v>
       </c>
       <c r="J19" s="19" t="str">
-        <f>VLOOKUP(I19,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+88</v>
       </c>
       <c r="K19" s="17">
-        <f t="shared" si="4"/>
-        <v>2000</v>
-      </c>
-      <c r="L19" s="11">
         <f t="shared" si="5"/>
         <v>2000</v>
       </c>
+      <c r="L19" s="11">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
       <c r="N19" s="19" t="s">
         <v>36</v>
       </c>
@@ -2885,11 +2850,11 @@
         <v>48</v>
       </c>
       <c r="P19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+48</v>
       </c>
       <c r="Q19" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+48</v>
       </c>
     </row>
@@ -2899,15 +2864,15 @@
         <v>12</v>
       </c>
       <c r="F20" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111.5949갈</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1159489999999999E+90</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>111.5949</v>
       </c>
       <c r="I20" s="19" t="str" cm="1">
@@ -2915,17 +2880,17 @@
         <v>갈</v>
       </c>
       <c r="J20" s="19" t="str">
-        <f>VLOOKUP(I20,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+88</v>
       </c>
       <c r="K20" s="17">
-        <f t="shared" si="4"/>
-        <v>2100</v>
-      </c>
-      <c r="L20" s="11">
         <f t="shared" si="5"/>
         <v>2100</v>
       </c>
+      <c r="L20" s="11">
+        <f t="shared" si="6"/>
+        <v>2100</v>
+      </c>
       <c r="N20" s="19" t="s">
         <v>37</v>
       </c>
@@ -2933,11 +2898,11 @@
         <v>52</v>
       </c>
       <c r="P20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999999E+51</v>
       </c>
       <c r="Q20" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+52</v>
       </c>
     </row>
@@ -2947,15 +2912,15 @@
         <v>13</v>
       </c>
       <c r="F21" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1272라</v>
       </c>
       <c r="G21" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1272000000000001E+92</v>
       </c>
       <c r="H21" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1272</v>
       </c>
       <c r="I21" s="19" t="str" cm="1">
@@ -2963,17 +2928,17 @@
         <v>라</v>
       </c>
       <c r="J21" s="19" t="str">
-        <f>VLOOKUP(I21,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="K21" s="17">
-        <f t="shared" si="4"/>
-        <v>2200</v>
-      </c>
-      <c r="L21" s="11">
         <f t="shared" si="5"/>
         <v>2200</v>
       </c>
+      <c r="L21" s="11">
+        <f t="shared" si="6"/>
+        <v>2200</v>
+      </c>
       <c r="N21" s="19" t="s">
         <v>38</v>
       </c>
@@ -2981,11 +2946,11 @@
         <v>56</v>
       </c>
       <c r="P21" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+56</v>
       </c>
       <c r="Q21" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+56</v>
       </c>
     </row>
@@ -2995,15 +2960,15 @@
         <v>14</v>
       </c>
       <c r="F22" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>113.8472라</v>
       </c>
       <c r="G22" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1384720000000001E+94</v>
       </c>
       <c r="H22" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>113.8472</v>
       </c>
       <c r="I22" s="19" t="str" cm="1">
@@ -3011,17 +2976,17 @@
         <v>라</v>
       </c>
       <c r="J22" s="19" t="str">
-        <f>VLOOKUP(I22,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+92</v>
       </c>
       <c r="K22" s="17">
-        <f t="shared" si="4"/>
-        <v>2300</v>
-      </c>
-      <c r="L22" s="11">
         <f t="shared" si="5"/>
         <v>2300</v>
       </c>
+      <c r="L22" s="11">
+        <f t="shared" si="6"/>
+        <v>2300</v>
+      </c>
       <c r="N22" s="19" t="s">
         <v>39</v>
       </c>
@@ -3029,11 +2994,11 @@
         <v>60</v>
       </c>
       <c r="P22" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E+59</v>
       </c>
       <c r="Q22" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+60</v>
       </c>
     </row>
@@ -3042,15 +3007,15 @@
         <v>15</v>
       </c>
       <c r="F23" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1499가</v>
       </c>
       <c r="G23" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1498999999999999E+96</v>
       </c>
       <c r="H23" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1498999999999999</v>
       </c>
       <c r="I23" s="19" t="str" cm="1">
@@ -3058,17 +3023,17 @@
         <v>가</v>
       </c>
       <c r="J23" s="19" t="str">
-        <f>VLOOKUP(I23,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="K23" s="17">
-        <f t="shared" si="4"/>
-        <v>2400</v>
-      </c>
-      <c r="L23" s="11">
         <f t="shared" si="5"/>
         <v>2400</v>
       </c>
+      <c r="L23" s="11">
+        <f t="shared" si="6"/>
+        <v>2400</v>
+      </c>
       <c r="N23" s="19" t="s">
         <v>40</v>
       </c>
@@ -3076,11 +3041,11 @@
         <v>64</v>
       </c>
       <c r="P23" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+64</v>
       </c>
       <c r="Q23" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+64</v>
       </c>
     </row>
@@ -3089,15 +3054,15 @@
         <v>16</v>
       </c>
       <c r="F24" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>116.1399가</v>
       </c>
       <c r="G24" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1613990000000001E+98</v>
       </c>
       <c r="H24" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>116.1399</v>
       </c>
       <c r="I24" s="19" t="str" cm="1">
@@ -3105,17 +3070,17 @@
         <v>가</v>
       </c>
       <c r="J24" s="19" t="str">
-        <f>VLOOKUP(I24,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+96</v>
       </c>
       <c r="K24" s="17">
-        <f t="shared" si="4"/>
-        <v>2500</v>
-      </c>
-      <c r="L24" s="11">
         <f t="shared" si="5"/>
         <v>2500</v>
       </c>
+      <c r="L24" s="11">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
       <c r="N24" s="19" t="s">
         <v>41</v>
       </c>
@@ -3123,11 +3088,11 @@
         <v>68</v>
       </c>
       <c r="P24" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999995E+67</v>
       </c>
       <c r="Q24" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+68</v>
       </c>
     </row>
@@ -3136,15 +3101,15 @@
         <v>17</v>
       </c>
       <c r="F25" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1731언</v>
       </c>
       <c r="G25" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1731000000000001E+100</v>
       </c>
       <c r="H25" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1731</v>
       </c>
       <c r="I25" s="19" t="str" cm="1">
@@ -3152,17 +3117,17 @@
         <v>언</v>
       </c>
       <c r="J25" s="19" t="str">
-        <f>VLOOKUP(I25,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="K25" s="17">
-        <f t="shared" si="4"/>
-        <v>2600</v>
-      </c>
-      <c r="L25" s="11">
         <f t="shared" si="5"/>
         <v>2600</v>
       </c>
+      <c r="L25" s="11">
+        <f t="shared" si="6"/>
+        <v>2600</v>
+      </c>
       <c r="N25" s="19" t="s">
         <v>42</v>
       </c>
@@ -3170,11 +3135,11 @@
         <v>72</v>
       </c>
       <c r="P25" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999994E+71</v>
       </c>
       <c r="Q25" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+72</v>
       </c>
     </row>
@@ -3183,15 +3148,15 @@
         <v>18</v>
       </c>
       <c r="F26" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>118.4831언</v>
       </c>
       <c r="G26" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.184831E+102</v>
       </c>
       <c r="H26" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>118.48309999999999</v>
       </c>
       <c r="I26" s="19" t="str" cm="1">
@@ -3199,17 +3164,17 @@
         <v>언</v>
       </c>
       <c r="J26" s="19" t="str">
-        <f>VLOOKUP(I26,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+100</v>
       </c>
       <c r="K26" s="17">
-        <f t="shared" si="4"/>
-        <v>2700</v>
-      </c>
-      <c r="L26" s="11">
         <f t="shared" si="5"/>
         <v>2700</v>
       </c>
+      <c r="L26" s="11">
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
       <c r="N26" s="19" t="s">
         <v>43</v>
       </c>
@@ -3217,11 +3182,11 @@
         <v>76</v>
       </c>
       <c r="P26" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+76</v>
       </c>
       <c r="Q26" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+76</v>
       </c>
     </row>
@@ -3230,15 +3195,15 @@
         <v>19</v>
       </c>
       <c r="F27" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.1967승</v>
       </c>
       <c r="G27" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1967000000000001E+104</v>
       </c>
       <c r="H27" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.1967000000000001</v>
       </c>
       <c r="I27" s="19" t="str" cm="1">
@@ -3246,17 +3211,17 @@
         <v>승</v>
       </c>
       <c r="J27" s="19" t="str">
-        <f>VLOOKUP(I27,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="K27" s="17">
-        <f t="shared" si="4"/>
-        <v>2800</v>
-      </c>
-      <c r="L27" s="11">
         <f t="shared" si="5"/>
         <v>2800</v>
       </c>
+      <c r="L27" s="11">
+        <f t="shared" si="6"/>
+        <v>2800</v>
+      </c>
       <c r="N27" s="19" t="s">
         <v>44</v>
       </c>
@@ -3264,11 +3229,11 @@
         <v>80</v>
       </c>
       <c r="P27" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+80</v>
       </c>
       <c r="Q27" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+80</v>
       </c>
     </row>
@@ -3277,15 +3242,15 @@
         <v>20</v>
       </c>
       <c r="F28" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>120.8667승</v>
       </c>
       <c r="G28" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2086669999999999E+106</v>
       </c>
       <c r="H28" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>120.86669999999999</v>
       </c>
       <c r="I28" s="19" t="str" cm="1">
@@ -3293,17 +3258,17 @@
         <v>승</v>
       </c>
       <c r="J28" s="19" t="str">
-        <f>VLOOKUP(I28,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+104</v>
       </c>
       <c r="K28" s="17">
-        <f t="shared" si="4"/>
-        <v>2900</v>
-      </c>
-      <c r="L28" s="11">
         <f t="shared" si="5"/>
         <v>2900</v>
       </c>
+      <c r="L28" s="11">
+        <f t="shared" si="6"/>
+        <v>2900</v>
+      </c>
       <c r="N28" s="19" t="s">
         <v>45</v>
       </c>
@@ -3311,11 +3276,11 @@
         <v>84</v>
       </c>
       <c r="P28" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.0000000000000001E+84</v>
       </c>
       <c r="Q28" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+84</v>
       </c>
     </row>
@@ -3324,15 +3289,15 @@
         <v>21</v>
       </c>
       <c r="F29" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2208마</v>
       </c>
       <c r="G29" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2207999999999998E+108</v>
       </c>
       <c r="H29" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2207999999999999</v>
       </c>
       <c r="I29" s="19" t="str" cm="1">
@@ -3340,17 +3305,17 @@
         <v>마</v>
       </c>
       <c r="J29" s="19" t="str">
-        <f>VLOOKUP(I29,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+108</v>
       </c>
       <c r="K29" s="17">
-        <f t="shared" si="4"/>
-        <v>3000</v>
-      </c>
-      <c r="L29" s="11">
         <f t="shared" si="5"/>
         <v>3000</v>
       </c>
+      <c r="L29" s="11">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
       <c r="N29" s="19" t="s">
         <v>46</v>
       </c>
@@ -3358,11 +3323,11 @@
         <v>88</v>
       </c>
       <c r="P29" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9.9999999999999996E+87</v>
       </c>
       <c r="Q29" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+88</v>
       </c>
     </row>
@@ -3371,15 +3336,15 @@
         <v>22</v>
       </c>
       <c r="F30" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>123.3008마</v>
       </c>
       <c r="G30" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.233008E+110</v>
       </c>
       <c r="H30" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>123.3008</v>
       </c>
       <c r="I30" s="19" t="str" cm="1">
@@ -3387,17 +3352,17 @@
         <v>마</v>
       </c>
       <c r="J30" s="19" t="str">
-        <f>VLOOKUP(I30,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+108</v>
       </c>
       <c r="K30" s="17">
-        <f t="shared" si="4"/>
-        <v>3100</v>
-      </c>
-      <c r="L30" s="11">
         <f t="shared" si="5"/>
         <v>3100</v>
       </c>
+      <c r="L30" s="11">
+        <f t="shared" si="6"/>
+        <v>3100</v>
+      </c>
       <c r="N30" s="19" t="s">
         <v>47</v>
       </c>
@@ -3405,11 +3370,11 @@
         <v>92</v>
       </c>
       <c r="P30" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+92</v>
       </c>
       <c r="Q30" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+92</v>
       </c>
     </row>
@@ -3418,15 +3383,15 @@
         <v>23</v>
       </c>
       <c r="F31" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2454살</v>
       </c>
       <c r="G31" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2454E+112</v>
       </c>
       <c r="H31" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2454000000000001</v>
       </c>
       <c r="I31" s="19" t="str" cm="1">
@@ -3434,17 +3399,17 @@
         <v>살</v>
       </c>
       <c r="J31" s="19" t="str">
-        <f>VLOOKUP(I31,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+112</v>
       </c>
       <c r="K31" s="17">
-        <f t="shared" si="4"/>
-        <v>3200</v>
-      </c>
-      <c r="L31" s="11">
         <f t="shared" si="5"/>
         <v>3200</v>
       </c>
+      <c r="L31" s="11">
+        <f t="shared" si="6"/>
+        <v>3200</v>
+      </c>
       <c r="N31" s="19" t="s">
         <v>48</v>
       </c>
@@ -3452,11 +3417,11 @@
         <v>96</v>
       </c>
       <c r="P31" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+96</v>
       </c>
       <c r="Q31" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+96</v>
       </c>
     </row>
@@ -3465,15 +3430,15 @@
         <v>24</v>
       </c>
       <c r="F32" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>125.7854살</v>
       </c>
       <c r="G32" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.257854E+114</v>
       </c>
       <c r="H32" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>125.7854</v>
       </c>
       <c r="I32" s="19" t="str" cm="1">
@@ -3481,17 +3446,17 @@
         <v>살</v>
       </c>
       <c r="J32" s="19" t="str">
-        <f>VLOOKUP(I32,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+112</v>
       </c>
       <c r="K32" s="17">
-        <f t="shared" si="4"/>
-        <v>3300</v>
-      </c>
-      <c r="L32" s="11">
         <f t="shared" si="5"/>
         <v>3300</v>
       </c>
+      <c r="L32" s="11">
+        <f t="shared" si="6"/>
+        <v>3300</v>
+      </c>
       <c r="N32" s="19" t="s">
         <v>49</v>
       </c>
@@ -3499,11 +3464,11 @@
         <v>100</v>
       </c>
       <c r="P32" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1E+100</v>
       </c>
       <c r="Q32" s="20" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1E+100</v>
       </c>
     </row>
@@ -3512,15 +3477,15 @@
         <v>25</v>
       </c>
       <c r="F33" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2705섬</v>
       </c>
       <c r="G33" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2705E+116</v>
       </c>
       <c r="H33" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2705</v>
       </c>
       <c r="I33" s="19" t="str" cm="1">
@@ -3528,17 +3493,17 @@
         <v>섬</v>
       </c>
       <c r="J33" s="19" t="str">
-        <f>VLOOKUP(I33,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+116</v>
       </c>
       <c r="K33" s="17">
-        <f t="shared" si="4"/>
-        <v>3400</v>
-      </c>
-      <c r="L33" s="11">
         <f t="shared" si="5"/>
         <v>3400</v>
       </c>
+      <c r="L33" s="11">
+        <f t="shared" si="6"/>
+        <v>3400</v>
+      </c>
       <c r="N33" s="19" t="s">
         <v>56</v>
       </c>
@@ -3546,11 +3511,11 @@
         <v>104</v>
       </c>
       <c r="P33" s="20">
-        <f t="shared" ref="P33:P34" si="8">POWER(10,O33)</f>
+        <f t="shared" ref="P33:P34" si="9">POWER(10,O33)</f>
         <v>1E+104</v>
       </c>
       <c r="Q33" s="20" t="str">
-        <f t="shared" ref="Q33:Q34" si="9">RIGHT(P33,O33)</f>
+        <f t="shared" ref="Q33:Q34" si="10">RIGHT(P33,O33)</f>
         <v>1E+104</v>
       </c>
       <c r="R33" s="11"/>
@@ -3568,15 +3533,15 @@
         <v>26</v>
       </c>
       <c r="F34" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128.3205섬</v>
       </c>
       <c r="G34" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2832050000000001E+118</v>
       </c>
       <c r="H34" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>128.32050000000001</v>
       </c>
       <c r="I34" s="19" t="str" cm="1">
@@ -3584,17 +3549,17 @@
         <v>섬</v>
       </c>
       <c r="J34" s="19" t="str">
-        <f>VLOOKUP(I34,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+116</v>
       </c>
       <c r="K34" s="17">
-        <f t="shared" si="4"/>
-        <v>3500</v>
-      </c>
-      <c r="L34" s="11">
         <f t="shared" si="5"/>
         <v>3500</v>
       </c>
+      <c r="L34" s="11">
+        <f t="shared" si="6"/>
+        <v>3500</v>
+      </c>
       <c r="N34" s="19" t="s">
         <v>57</v>
       </c>
@@ -3602,11 +3567,11 @@
         <v>108</v>
       </c>
       <c r="P34" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1E+108</v>
       </c>
       <c r="Q34" s="20" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1E+108</v>
       </c>
       <c r="R34" s="11"/>
@@ -3624,15 +3589,15 @@
         <v>27</v>
       </c>
       <c r="F35" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.2961찰</v>
       </c>
       <c r="G35" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.2961E+120</v>
       </c>
       <c r="H35" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.2961</v>
       </c>
       <c r="I35" s="19" t="str" cm="1">
@@ -3640,17 +3605,17 @@
         <v>찰</v>
       </c>
       <c r="J35" s="19" t="str">
-        <f>VLOOKUP(I35,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+120</v>
       </c>
       <c r="K35" s="17">
-        <f t="shared" si="4"/>
-        <v>3600</v>
-      </c>
-      <c r="L35" s="11">
         <f t="shared" si="5"/>
         <v>3600</v>
       </c>
+      <c r="L35" s="11">
+        <f t="shared" si="6"/>
+        <v>3600</v>
+      </c>
       <c r="N35" s="19" t="s">
         <v>60</v>
       </c>
@@ -3658,11 +3623,11 @@
         <v>112</v>
       </c>
       <c r="P35" s="20">
-        <f t="shared" ref="P35:P38" si="10">POWER(10,O35)</f>
+        <f t="shared" ref="P35:P38" si="11">POWER(10,O35)</f>
         <v>9.9999999999999993E+111</v>
       </c>
       <c r="Q35" s="20" t="str">
-        <f t="shared" ref="Q35:Q38" si="11">RIGHT(P35,O35)</f>
+        <f t="shared" ref="Q35:Q38" si="12">RIGHT(P35,O35)</f>
         <v>1E+112</v>
       </c>
       <c r="R35" s="11"/>
@@ -3680,15 +3645,15 @@
         <v>28</v>
       </c>
       <c r="F36" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>130.9061찰</v>
       </c>
       <c r="G36" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3090610000000001E+122</v>
       </c>
       <c r="H36" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>130.90610000000001</v>
       </c>
       <c r="I36" s="19" t="str" cm="1">
@@ -3696,17 +3661,17 @@
         <v>찰</v>
       </c>
       <c r="J36" s="19" t="str">
-        <f>VLOOKUP(I36,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+120</v>
       </c>
       <c r="K36" s="17">
-        <f t="shared" si="4"/>
-        <v>3700</v>
-      </c>
-      <c r="L36" s="11">
         <f t="shared" si="5"/>
         <v>3700</v>
       </c>
+      <c r="L36" s="11">
+        <f t="shared" si="6"/>
+        <v>3700</v>
+      </c>
       <c r="N36" s="19" t="s">
         <v>61</v>
       </c>
@@ -3714,11 +3679,11 @@
         <v>116</v>
       </c>
       <c r="P36" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1E+116</v>
       </c>
       <c r="Q36" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+116</v>
       </c>
       <c r="R36" s="11"/>
@@ -3736,15 +3701,15 @@
         <v>29</v>
       </c>
       <c r="F37" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1.3222교</v>
       </c>
       <c r="G37" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.3222E+124</v>
       </c>
       <c r="H37" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3222</v>
       </c>
       <c r="I37" s="19" t="str" cm="1">
@@ -3752,17 +3717,17 @@
         <v>교</v>
       </c>
       <c r="J37" s="19" t="str">
-        <f>VLOOKUP(I37,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+124</v>
       </c>
       <c r="K37" s="17">
-        <f t="shared" si="4"/>
-        <v>3800</v>
-      </c>
-      <c r="L37" s="11">
         <f t="shared" si="5"/>
         <v>3800</v>
       </c>
+      <c r="L37" s="11">
+        <f t="shared" si="6"/>
+        <v>3800</v>
+      </c>
       <c r="N37" s="19" t="s">
         <v>62</v>
       </c>
@@ -3770,11 +3735,11 @@
         <v>120</v>
       </c>
       <c r="P37" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999998E+119</v>
       </c>
       <c r="Q37" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+120</v>
       </c>
       <c r="R37" s="11"/>
@@ -3792,15 +3757,15 @@
         <v>30</v>
       </c>
       <c r="F38" s="20" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>133.5422교</v>
       </c>
       <c r="G38" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.335422E+126</v>
       </c>
       <c r="H38" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>133.54220000000001</v>
       </c>
       <c r="I38" s="19" t="str" cm="1">
@@ -3808,17 +3773,17 @@
         <v>교</v>
       </c>
       <c r="J38" s="19" t="str">
-        <f>VLOOKUP(I38,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+124</v>
       </c>
       <c r="K38" s="17">
-        <f t="shared" si="4"/>
-        <v>3900</v>
-      </c>
-      <c r="L38" s="11">
         <f t="shared" si="5"/>
         <v>3900</v>
       </c>
+      <c r="L38" s="11">
+        <f t="shared" si="6"/>
+        <v>3900</v>
+      </c>
       <c r="N38" s="19" t="s">
         <v>63</v>
       </c>
@@ -3826,11 +3791,11 @@
         <v>124</v>
       </c>
       <c r="P38" s="20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>9.9999999999999995E+123</v>
       </c>
       <c r="Q38" s="20" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1E+124</v>
       </c>
       <c r="R38" s="11"/>
@@ -3848,15 +3813,15 @@
         <v>31</v>
       </c>
       <c r="F39" s="20" t="str">
-        <f t="shared" ref="F39:F40" si="12">H39&amp;I39</f>
+        <f t="shared" ref="F39:F40" si="13">H39&amp;I39</f>
         <v>1.3488위</v>
       </c>
       <c r="G39" s="20">
-        <f t="shared" ref="G39:G40" si="13">H39*J39</f>
+        <f t="shared" ref="G39:G40" si="14">H39*J39</f>
         <v>1.3488000000000002E+128</v>
       </c>
       <c r="H39" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1.3488</v>
       </c>
       <c r="I39" s="19" t="str" cm="1">
@@ -3864,15 +3829,15 @@
         <v>위</v>
       </c>
       <c r="J39" s="19" t="str">
-        <f>VLOOKUP(I39,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K39" s="17">
-        <f t="shared" ref="K39:K40" si="14">L39</f>
+        <f t="shared" ref="K39:K40" si="15">L39</f>
         <v>4000</v>
       </c>
       <c r="L39" s="11">
-        <f t="shared" ref="L39:L40" si="15">($B$14*(E39-1)+2000)/2</f>
+        <f t="shared" ref="L39:L40" si="16">($B$14*(E39-1)+2000)/2</f>
         <v>4000</v>
       </c>
       <c r="N39" s="19" t="s">
@@ -3882,11 +3847,11 @@
         <v>128</v>
       </c>
       <c r="P39" s="20">
-        <f t="shared" ref="P39" si="16">POWER(10,O39)</f>
+        <f t="shared" ref="P39" si="17">POWER(10,O39)</f>
         <v>1.0000000000000001E+128</v>
       </c>
       <c r="Q39" s="20" t="str">
-        <f t="shared" ref="Q39" si="17">RIGHT(P39,O39)</f>
+        <f t="shared" ref="Q39" si="18">RIGHT(P39,O39)</f>
         <v>1E+128</v>
       </c>
     </row>
@@ -3895,15 +3860,15 @@
         <v>32</v>
       </c>
       <c r="F40" s="20" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>136.2288위</v>
       </c>
       <c r="G40" s="20">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1.3622880000000003E+130</v>
       </c>
       <c r="H40" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>136.22880000000001</v>
       </c>
       <c r="I40" s="19" t="str" cm="1">
@@ -3911,16 +3876,16 @@
         <v>위</v>
       </c>
       <c r="J40" s="19" t="str">
-        <f>VLOOKUP(I40,N:Q,4,FALSE)</f>
+        <f t="shared" si="0"/>
         <v>1E+128</v>
       </c>
       <c r="K40" s="17">
-        <f t="shared" si="14"/>
-        <v>4100</v>
+        <f t="shared" si="15"/>
+        <v>4200</v>
       </c>
       <c r="L40" s="11">
-        <f t="shared" si="15"/>
-        <v>4100</v>
+        <f>L39+200</f>
+        <v>4200</v>
       </c>
     </row>
   </sheetData>
